--- a/experiment/linear/ex9_1_1/Experimentos_Generador/(ex9.1.1(Linear))__Strong_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9_1_1/Experimentos_Generador/(ex9.1.1(Linear))__Strong_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,87 +66,90 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-11.536615846038488 + 1.47796384237274y_1 + 2.022827626426727y_2</t>
-  </si>
-  <si>
-    <t>11.536615846038488</t>
+    <t>-14.234761259225785 + 0.6946226841391774y_1 + 3.0569664106040064y_2</t>
+  </si>
+  <si>
+    <t>14.234761259225785</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>2.9</t>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>-19.79141738213586 + 2.040126525079078y_1 + 1.8763066726916702y_2</t>
+  </si>
+  <si>
+    <t>15.79141738213586</t>
+  </si>
+  <si>
+    <t>0.32</t>
   </si>
   <si>
     <t>9.200000000000001</t>
   </si>
   <si>
-    <t>-11.892526868282928 + 2.0328251270515705y_1 + 0.8431225526951597y_2</t>
-  </si>
-  <si>
-    <t>7.892526868282929</t>
-  </si>
-  <si>
-    <t>0.91</t>
-  </si>
-  <si>
-    <t>9.9</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>20.08147963009248 - 2x - 1.5596100974756308y_1 + 1.9105223694076479y_2</t>
-  </si>
-  <si>
-    <t>-36.08147963009248</t>
+    <t>8.299999999999999</t>
+  </si>
+  <si>
+    <t>16.8785991866245 - 2x - 0.9312245820153637y_1 + 0.5162223226389515y_2</t>
+  </si>
+  <si>
+    <t>-32.8785991866245</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.78</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>-77.59739065233691 + 8x + 2.1144713821544614y_1 + 0.9097725568607851y_2</t>
-  </si>
-  <si>
-    <t>29.237390652336913</t>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>-54.93686097303811 + 8x + 0.9185720741075463y_1 - 0.1468895918059949y_2</t>
+  </si>
+  <si>
+    <t>6.236860973038106</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.57</t>
-  </si>
-  <si>
-    <t>7.199999999999999</t>
-  </si>
-  <si>
-    <t>8.4</t>
-  </si>
-  <si>
-    <t>6.26836290927268 - 2x + 0.9147713071732069y_1 + 2.3794051487128223y_2</t>
-  </si>
-  <si>
-    <t>5.25163709072732</t>
-  </si>
-  <si>
-    <t>0.0</t>
+    <t>0.83</t>
   </si>
   <si>
     <t>0.7000000000000001</t>
   </si>
   <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>2.4174664859165524 - 2x - 0.16249435155896963y_1 + 3.314716071697545y_2</t>
+  </si>
+  <si>
+    <t>9.062533514083448</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>8.9</t>
+  </si>
+  <si>
     <t>x</t>
   </si>
   <si>
@@ -156,34 +159,34 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>8.1</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>2.05</t>
+    <t>6.05</t>
+  </si>
+  <si>
+    <t>6.85</t>
+  </si>
+  <si>
+    <t>3.1</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-1.355911022244439</t>
-  </si>
-  <si>
-    <t>-3.4840089977505624</t>
+    <t>-0.31764121102575626</t>
+  </si>
+  <si>
+    <t>-3.8945684591052867</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-54.4</t>
-  </si>
-  <si>
-    <t>-36.65175372823461</t>
-  </si>
-  <si>
-    <t>-25.193268349579277</t>
+    <t>2.5999999999999996</t>
+  </si>
+  <si>
+    <t>-15.051043831902398</t>
+  </si>
+  <si>
+    <t>-28.319530049706284</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -717,7 +720,7 @@
         <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -735,24 +738,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -770,17 +773,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -798,22 +801,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -831,17 +834,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>2.94</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>2.4000000000000004</v>
+        <v>2.7600000000000002</v>
       </c>
     </row>
   </sheetData>
